--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putta\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F98121-545C-4A5C-B440-B0A05EDCF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC2082-AA56-4C37-B20C-33F3FEFE1CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3246,13 +3246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3557,19 +3556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J660"/>
+  <dimension ref="A1:F660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="P648" sqref="P648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3609,7 +3604,7 @@
         <v>44240.647800925923</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3629,7 +3624,7 @@
         <v>44950.577599999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3648,9 +3643,8 @@
       <c r="F4" s="2">
         <v>44831.569900000002</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3670,7 +3664,7 @@
         <v>44316.348400000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3690,7 +3684,7 @@
         <v>44820.612800000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>44316.559099999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3730,7 +3724,7 @@
         <v>44427.335099999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3744,7 @@
         <v>45008.464999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3770,7 +3764,7 @@
         <v>44197.512999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3790,7 +3784,7 @@
         <v>45190.4735</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3804,7 @@
         <v>44709.631300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3830,7 +3824,7 @@
         <v>44286.679199999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +3844,7 @@
         <v>45055.519099999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3864,7 @@
         <v>44722.395100000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putta\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC2082-AA56-4C37-B20C-33F3FEFE1CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EF49C-75B7-4534-80E7-8AEE81AC4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="P648" sqref="P648"/>
+    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
+      <selection activeCell="A661" sqref="A661:F661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putta\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EF49C-75B7-4534-80E7-8AEE81AC4C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BD0A2B-AC14-4BB7-AB4A-386DAED2DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="A661" sqref="A661:F661"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="J658" sqref="J658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putta\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361E77C-DDA2-499F-A08B-85FEEC51986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44886E48-AE09-4E3B-BED5-46DA5358AA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1057">
   <si>
     <t>Part_Name</t>
   </si>
@@ -1204,6 +1204,9 @@
     <t>REFLECTOR LAMP RH</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>CVB005 NA</t>
   </si>
   <si>
@@ -3185,6 +3188,9 @@
   </si>
   <si>
     <t>TRAILBLAZER</t>
+  </si>
+  <si>
+    <t>27-02-2024 23:40</t>
   </si>
 </sst>
 </file>
@@ -3556,13 +3562,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F660"/>
+  <dimension ref="A1:F661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="I657" sqref="I657"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3589,10 +3603,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D2">
         <v>96</v>
@@ -3609,10 +3623,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -3629,10 +3643,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D4">
         <v>66</v>
@@ -3649,10 +3663,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D5">
         <v>80</v>
@@ -3669,10 +3683,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D6">
         <v>84</v>
@@ -3689,10 +3703,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D7">
         <v>73</v>
@@ -3709,10 +3723,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3729,10 +3743,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -3749,10 +3763,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D10">
         <v>64</v>
@@ -3769,10 +3783,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3789,10 +3803,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D12">
         <v>93</v>
@@ -3809,10 +3823,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -3829,10 +3843,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3849,10 +3863,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -3869,10 +3883,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -3889,10 +3903,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D17">
         <v>83</v>
@@ -3909,10 +3923,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D18">
         <v>83</v>
@@ -3929,10 +3943,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D19">
         <v>76</v>
@@ -3949,10 +3963,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D20">
         <v>44</v>
@@ -3969,10 +3983,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D21">
         <v>93</v>
@@ -3989,10 +4003,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -4009,10 +4023,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D23">
         <v>62</v>
@@ -4029,10 +4043,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C24" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D24">
         <v>34</v>
@@ -4049,10 +4063,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C25" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D25">
         <v>74</v>
@@ -4069,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C26" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D26">
         <v>62</v>
@@ -4089,10 +4103,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C27" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D27">
         <v>58</v>
@@ -4109,10 +4123,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C28" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -4129,10 +4143,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -4149,10 +4163,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D30">
         <v>79</v>
@@ -4169,10 +4183,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D31">
         <v>83</v>
@@ -4189,10 +4203,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C32" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -4209,10 +4223,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C33" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D33">
         <v>84</v>
@@ -4229,10 +4243,10 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C34" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D34">
         <v>13</v>
@@ -4249,10 +4263,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C35" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D35">
         <v>49</v>
@@ -4269,10 +4283,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C36" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -4289,10 +4303,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C37" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D37">
         <v>68</v>
@@ -4309,10 +4323,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C38" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D38">
         <v>88</v>
@@ -4329,10 +4343,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C39" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D39">
         <v>54</v>
@@ -4349,10 +4363,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C40" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D40">
         <v>80</v>
@@ -4369,10 +4383,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C41" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D41">
         <v>33</v>
@@ -4389,10 +4403,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C42" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -4409,10 +4423,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C43" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -4429,10 +4443,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C44" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D44">
         <v>58</v>
@@ -4449,10 +4463,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C45" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D45">
         <v>68</v>
@@ -4469,10 +4483,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D46">
         <v>67</v>
@@ -4489,10 +4503,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C47" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -4509,10 +4523,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C48" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D48">
         <v>50</v>
@@ -4529,10 +4543,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C49" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -4549,10 +4563,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D50">
         <v>40</v>
@@ -4569,10 +4583,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D51">
         <v>37</v>
@@ -4589,10 +4603,10 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C52" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -4609,10 +4623,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C53" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D53">
         <v>25</v>
@@ -4629,10 +4643,10 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C54" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D54">
         <v>24</v>
@@ -4649,10 +4663,10 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C55" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D55">
         <v>62</v>
@@ -4669,10 +4683,10 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -4689,10 +4703,10 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C57" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D57">
         <v>64</v>
@@ -4709,10 +4723,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C58" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D58">
         <v>30</v>
@@ -4729,10 +4743,10 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C59" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D59">
         <v>87</v>
@@ -4749,10 +4763,10 @@
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C60" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4769,10 +4783,10 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C61" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D61">
         <v>80</v>
@@ -4789,10 +4803,10 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C62" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D62">
         <v>99</v>
@@ -4809,10 +4823,10 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C63" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D63">
         <v>47</v>
@@ -4829,10 +4843,10 @@
         <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D64">
         <v>31</v>
@@ -4849,10 +4863,10 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C65" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D65">
         <v>59</v>
@@ -4869,10 +4883,10 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C66" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -4889,10 +4903,10 @@
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D67">
         <v>39</v>
@@ -4909,10 +4923,10 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C68" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D68">
         <v>70</v>
@@ -4929,10 +4943,10 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C69" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D69">
         <v>56</v>
@@ -4949,10 +4963,10 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -4969,10 +4983,10 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4989,10 +5003,10 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C72" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -5009,10 +5023,10 @@
         <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C73" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5029,10 +5043,10 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C74" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -5049,10 +5063,10 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C75" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D75">
         <v>14</v>
@@ -5069,10 +5083,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C76" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D76">
         <v>49</v>
@@ -5089,10 +5103,10 @@
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C77" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D77">
         <v>74</v>
@@ -5109,10 +5123,10 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C78" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D78">
         <v>35</v>
@@ -5129,10 +5143,10 @@
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C79" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D79">
         <v>21</v>
@@ -5149,10 +5163,10 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D80">
         <v>36</v>
@@ -5169,10 +5183,10 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C81" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D81">
         <v>39</v>
@@ -5189,10 +5203,10 @@
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C82" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D82">
         <v>9</v>
@@ -5209,10 +5223,10 @@
         <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C83" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D83">
         <v>14</v>
@@ -5229,10 +5243,10 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C84" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D84">
         <v>32</v>
@@ -5249,10 +5263,10 @@
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C85" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5269,10 +5283,10 @@
         <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C86" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -5289,10 +5303,10 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C87" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D87">
         <v>98</v>
@@ -5309,10 +5323,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C88" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D88">
         <v>31</v>
@@ -5329,10 +5343,10 @@
         <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C89" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D89">
         <v>56</v>
@@ -5349,10 +5363,10 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D90">
         <v>36</v>
@@ -5369,10 +5383,10 @@
         <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C91" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D91">
         <v>45</v>
@@ -5389,10 +5403,10 @@
         <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C92" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D92">
         <v>69</v>
@@ -5409,10 +5423,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C93" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D93">
         <v>47</v>
@@ -5429,10 +5443,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C94" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D94">
         <v>34</v>
@@ -5449,10 +5463,10 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C95" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -5469,10 +5483,10 @@
         <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C96" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D96">
         <v>67</v>
@@ -5489,10 +5503,10 @@
         <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C97" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D97">
         <v>23</v>
@@ -5509,10 +5523,10 @@
         <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C98" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D98">
         <v>48</v>
@@ -5529,10 +5543,10 @@
         <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C99" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D99">
         <v>20</v>
@@ -5549,10 +5563,10 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C100" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D100">
         <v>79</v>
@@ -5569,10 +5583,10 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C101" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D101">
         <v>98</v>
@@ -5589,10 +5603,10 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C102" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D102">
         <v>58</v>
@@ -5609,10 +5623,10 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C103" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D103">
         <v>57</v>
@@ -5629,10 +5643,10 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C104" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D104">
         <v>84</v>
@@ -5649,10 +5663,10 @@
         <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C105" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D105">
         <v>95</v>
@@ -5669,10 +5683,10 @@
         <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C106" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D106">
         <v>11</v>
@@ -5689,10 +5703,10 @@
         <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C107" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D107">
         <v>58</v>
@@ -5709,10 +5723,10 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C108" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -5729,10 +5743,10 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C109" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D109">
         <v>75</v>
@@ -5749,10 +5763,10 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C110" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D110">
         <v>35</v>
@@ -5769,10 +5783,10 @@
         <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C111" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D111">
         <v>87</v>
@@ -5789,10 +5803,10 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C112" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -5809,10 +5823,10 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C113" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D113">
         <v>15</v>
@@ -5829,10 +5843,10 @@
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C114" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D114">
         <v>28</v>
@@ -5849,10 +5863,10 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C115" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D115">
         <v>81</v>
@@ -5869,10 +5883,10 @@
         <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C116" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D116">
         <v>100</v>
@@ -5889,10 +5903,10 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C117" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D117">
         <v>81</v>
@@ -5909,10 +5923,10 @@
         <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C118" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D118">
         <v>78</v>
@@ -5929,10 +5943,10 @@
         <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C119" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D119">
         <v>100</v>
@@ -5949,10 +5963,10 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C120" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -5969,10 +5983,10 @@
         <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C121" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D121">
         <v>45</v>
@@ -5989,10 +6003,10 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C122" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D122">
         <v>64</v>
@@ -6009,10 +6023,10 @@
         <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D123">
         <v>58</v>
@@ -6029,10 +6043,10 @@
         <v>95</v>
       </c>
       <c r="B124" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C124" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D124">
         <v>60</v>
@@ -6049,10 +6063,10 @@
         <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C125" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D125">
         <v>94</v>
@@ -6069,10 +6083,10 @@
         <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D126">
         <v>50</v>
@@ -6089,10 +6103,10 @@
         <v>98</v>
       </c>
       <c r="B127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C127" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D127">
         <v>70</v>
@@ -6109,10 +6123,10 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C128" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D128">
         <v>10</v>
@@ -6129,10 +6143,10 @@
         <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C129" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D129">
         <v>86</v>
@@ -6149,10 +6163,10 @@
         <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D130">
         <v>27</v>
@@ -6169,10 +6183,10 @@
         <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C131" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D131">
         <v>79</v>
@@ -6189,10 +6203,10 @@
         <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C132" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D132">
         <v>69</v>
@@ -6209,10 +6223,10 @@
         <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C133" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D133">
         <v>41</v>
@@ -6229,10 +6243,10 @@
         <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C134" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D134">
         <v>27</v>
@@ -6249,10 +6263,10 @@
         <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C135" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D135">
         <v>39</v>
@@ -6269,10 +6283,10 @@
         <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C136" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D136">
         <v>100</v>
@@ -6289,10 +6303,10 @@
         <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C137" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D137">
         <v>42</v>
@@ -6309,10 +6323,10 @@
         <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C138" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D138">
         <v>73</v>
@@ -6329,10 +6343,10 @@
         <v>110</v>
       </c>
       <c r="B139" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C139" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D139">
         <v>25</v>
@@ -6349,10 +6363,10 @@
         <v>111</v>
       </c>
       <c r="B140" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C140" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D140">
         <v>44</v>
@@ -6369,10 +6383,10 @@
         <v>112</v>
       </c>
       <c r="B141" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C141" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D141">
         <v>82</v>
@@ -6389,10 +6403,10 @@
         <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C142" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D142">
         <v>29</v>
@@ -6409,10 +6423,10 @@
         <v>114</v>
       </c>
       <c r="B143" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C143" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -6429,10 +6443,10 @@
         <v>115</v>
       </c>
       <c r="B144" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C144" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D144">
         <v>21</v>
@@ -6449,10 +6463,10 @@
         <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C145" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D145">
         <v>29</v>
@@ -6469,10 +6483,10 @@
         <v>95</v>
       </c>
       <c r="B146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C146" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D146">
         <v>78</v>
@@ -6489,10 +6503,10 @@
         <v>117</v>
       </c>
       <c r="B147" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C147" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D147">
         <v>61</v>
@@ -6509,10 +6523,10 @@
         <v>118</v>
       </c>
       <c r="B148" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C148" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D148">
         <v>26</v>
@@ -6529,10 +6543,10 @@
         <v>119</v>
       </c>
       <c r="B149" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C149" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6549,10 +6563,10 @@
         <v>120</v>
       </c>
       <c r="B150" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C150" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D150">
         <v>35</v>
@@ -6569,10 +6583,10 @@
         <v>121</v>
       </c>
       <c r="B151" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C151" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D151">
         <v>46</v>
@@ -6589,10 +6603,10 @@
         <v>122</v>
       </c>
       <c r="B152" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C152" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D152">
         <v>69</v>
@@ -6609,10 +6623,10 @@
         <v>123</v>
       </c>
       <c r="B153" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C153" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D153">
         <v>19</v>
@@ -6629,10 +6643,10 @@
         <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C154" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D154">
         <v>8</v>
@@ -6649,10 +6663,10 @@
         <v>125</v>
       </c>
       <c r="B155" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C155" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D155">
         <v>39</v>
@@ -6669,10 +6683,10 @@
         <v>126</v>
       </c>
       <c r="B156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C156" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D156">
         <v>90</v>
@@ -6689,10 +6703,10 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C157" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D157">
         <v>53</v>
@@ -6709,10 +6723,10 @@
         <v>127</v>
       </c>
       <c r="B158" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C158" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D158">
         <v>99</v>
@@ -6729,10 +6743,10 @@
         <v>128</v>
       </c>
       <c r="B159" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C159" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D159">
         <v>32</v>
@@ -6749,10 +6763,10 @@
         <v>71</v>
       </c>
       <c r="B160" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C160" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -6769,10 +6783,10 @@
         <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C161" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D161">
         <v>36</v>
@@ -6789,10 +6803,10 @@
         <v>129</v>
       </c>
       <c r="B162" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C162" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D162">
         <v>67</v>
@@ -6809,10 +6823,10 @@
         <v>130</v>
       </c>
       <c r="B163" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C163" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D163">
         <v>39</v>
@@ -6829,10 +6843,10 @@
         <v>131</v>
       </c>
       <c r="B164" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C164" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D164">
         <v>97</v>
@@ -6849,10 +6863,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C165" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D165">
         <v>8</v>
@@ -6869,10 +6883,10 @@
         <v>132</v>
       </c>
       <c r="B166" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C166" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D166">
         <v>49</v>
@@ -6889,10 +6903,10 @@
         <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C167" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D167">
         <v>19</v>
@@ -6909,10 +6923,10 @@
         <v>134</v>
       </c>
       <c r="B168" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C168" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -6929,10 +6943,10 @@
         <v>135</v>
       </c>
       <c r="B169" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C169" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D169">
         <v>100</v>
@@ -6949,10 +6963,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C170" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -6969,10 +6983,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C171" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D171">
         <v>59</v>
@@ -6989,10 +7003,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C172" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D172">
         <v>55</v>
@@ -7009,10 +7023,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C173" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D173">
         <v>14</v>
@@ -7029,10 +7043,10 @@
         <v>52</v>
       </c>
       <c r="B174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C174" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D174">
         <v>9</v>
@@ -7049,10 +7063,10 @@
         <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C175" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D175">
         <v>39</v>
@@ -7069,10 +7083,10 @@
         <v>140</v>
       </c>
       <c r="B176" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C176" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D176">
         <v>73</v>
@@ -7089,10 +7103,10 @@
         <v>141</v>
       </c>
       <c r="B177" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C177" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D177">
         <v>13</v>
@@ -7109,10 +7123,10 @@
         <v>142</v>
       </c>
       <c r="B178" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C178" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D178">
         <v>31</v>
@@ -7129,10 +7143,10 @@
         <v>64</v>
       </c>
       <c r="B179" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C179" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D179">
         <v>83</v>
@@ -7149,10 +7163,10 @@
         <v>44</v>
       </c>
       <c r="B180" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C180" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D180">
         <v>36</v>
@@ -7169,10 +7183,10 @@
         <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C181" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D181">
         <v>48</v>
@@ -7189,10 +7203,10 @@
         <v>105</v>
       </c>
       <c r="B182" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C182" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D182">
         <v>41</v>
@@ -7209,10 +7223,10 @@
         <v>106</v>
       </c>
       <c r="B183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C183" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D183">
         <v>76</v>
@@ -7229,10 +7243,10 @@
         <v>107</v>
       </c>
       <c r="B184" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C184" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D184">
         <v>15</v>
@@ -7249,10 +7263,10 @@
         <v>143</v>
       </c>
       <c r="B185" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C185" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D185">
         <v>96</v>
@@ -7269,10 +7283,10 @@
         <v>95</v>
       </c>
       <c r="B186" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C186" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D186">
         <v>32</v>
@@ -7289,10 +7303,10 @@
         <v>117</v>
       </c>
       <c r="B187" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C187" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D187">
         <v>62</v>
@@ -7309,10 +7323,10 @@
         <v>144</v>
       </c>
       <c r="B188" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C188" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D188">
         <v>25</v>
@@ -7329,10 +7343,10 @@
         <v>145</v>
       </c>
       <c r="B189" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C189" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D189">
         <v>77</v>
@@ -7349,10 +7363,10 @@
         <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C190" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D190">
         <v>17</v>
@@ -7369,10 +7383,10 @@
         <v>147</v>
       </c>
       <c r="B191" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C191" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D191">
         <v>45</v>
@@ -7389,10 +7403,10 @@
         <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C192" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D192">
         <v>68</v>
@@ -7409,10 +7423,10 @@
         <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C193" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D193">
         <v>86</v>
@@ -7429,10 +7443,10 @@
         <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C194" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D194">
         <v>70</v>
@@ -7449,10 +7463,10 @@
         <v>151</v>
       </c>
       <c r="B195" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C195" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D195">
         <v>56</v>
@@ -7469,10 +7483,10 @@
         <v>74</v>
       </c>
       <c r="B196" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C196" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D196">
         <v>48</v>
@@ -7489,10 +7503,10 @@
         <v>152</v>
       </c>
       <c r="B197" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C197" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D197">
         <v>89</v>
@@ -7509,10 +7523,10 @@
         <v>153</v>
       </c>
       <c r="B198" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C198" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D198">
         <v>82</v>
@@ -7529,10 +7543,10 @@
         <v>138</v>
       </c>
       <c r="B199" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C199" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D199">
         <v>24</v>
@@ -7549,10 +7563,10 @@
         <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C200" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D200">
         <v>16</v>
@@ -7569,10 +7583,10 @@
         <v>154</v>
       </c>
       <c r="B201" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C201" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D201">
         <v>31</v>
@@ -7589,10 +7603,10 @@
         <v>155</v>
       </c>
       <c r="B202" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C202" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D202">
         <v>97</v>
@@ -7609,10 +7623,10 @@
         <v>156</v>
       </c>
       <c r="B203" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C203" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D203">
         <v>33</v>
@@ -7629,10 +7643,10 @@
         <v>156</v>
       </c>
       <c r="B204" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C204" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D204">
         <v>88</v>
@@ -7649,10 +7663,10 @@
         <v>66</v>
       </c>
       <c r="B205" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C205" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D205">
         <v>37</v>
@@ -7669,10 +7683,10 @@
         <v>65</v>
       </c>
       <c r="B206" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C206" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D206">
         <v>75</v>
@@ -7689,10 +7703,10 @@
         <v>157</v>
       </c>
       <c r="B207" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C207" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D207">
         <v>12</v>
@@ -7709,10 +7723,10 @@
         <v>158</v>
       </c>
       <c r="B208" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C208" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D208">
         <v>56</v>
@@ -7729,10 +7743,10 @@
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C209" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D209">
         <v>23</v>
@@ -7749,10 +7763,10 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C210" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D210">
         <v>49</v>
@@ -7769,10 +7783,10 @@
         <v>106</v>
       </c>
       <c r="B211" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C211" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D211">
         <v>27</v>
@@ -7789,10 +7803,10 @@
         <v>107</v>
       </c>
       <c r="B212" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C212" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D212">
         <v>74</v>
@@ -7809,10 +7823,10 @@
         <v>159</v>
       </c>
       <c r="B213" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C213" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D213">
         <v>67</v>
@@ -7829,10 +7843,10 @@
         <v>160</v>
       </c>
       <c r="B214" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C214" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D214">
         <v>48</v>
@@ -7849,10 +7863,10 @@
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C215" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D215">
         <v>42</v>
@@ -7869,10 +7883,10 @@
         <v>161</v>
       </c>
       <c r="B216" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C216" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D216">
         <v>13</v>
@@ -7889,10 +7903,10 @@
         <v>162</v>
       </c>
       <c r="B217" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C217" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D217">
         <v>73</v>
@@ -7909,10 +7923,10 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C218" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D218">
         <v>46</v>
@@ -7929,10 +7943,10 @@
         <v>163</v>
       </c>
       <c r="B219" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C219" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D219">
         <v>9</v>
@@ -7949,10 +7963,10 @@
         <v>164</v>
       </c>
       <c r="B220" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C220" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D220">
         <v>31</v>
@@ -7969,10 +7983,10 @@
         <v>165</v>
       </c>
       <c r="B221" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C221" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D221">
         <v>50</v>
@@ -7989,10 +8003,10 @@
         <v>166</v>
       </c>
       <c r="B222" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C222" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D222">
         <v>28</v>
@@ -8009,10 +8023,10 @@
         <v>167</v>
       </c>
       <c r="B223" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C223" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D223">
         <v>82</v>
@@ -8029,10 +8043,10 @@
         <v>168</v>
       </c>
       <c r="B224" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C224" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D224">
         <v>89</v>
@@ -8049,10 +8063,10 @@
         <v>169</v>
       </c>
       <c r="B225" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C225" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D225">
         <v>67</v>
@@ -8069,10 +8083,10 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C226" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D226">
         <v>91</v>
@@ -8089,10 +8103,10 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C227" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8109,10 +8123,10 @@
         <v>170</v>
       </c>
       <c r="B228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C228" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D228">
         <v>53</v>
@@ -8129,10 +8143,10 @@
         <v>171</v>
       </c>
       <c r="B229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C229" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D229">
         <v>65</v>
@@ -8149,10 +8163,10 @@
         <v>71</v>
       </c>
       <c r="B230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C230" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D230">
         <v>67</v>
@@ -8169,10 +8183,10 @@
         <v>70</v>
       </c>
       <c r="B231" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C231" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D231">
         <v>62</v>
@@ -8189,10 +8203,10 @@
         <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C232" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D232">
         <v>57</v>
@@ -8209,10 +8223,10 @@
         <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C233" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -8229,10 +8243,10 @@
         <v>37</v>
       </c>
       <c r="B234" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C234" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D234">
         <v>37</v>
@@ -8249,10 +8263,10 @@
         <v>38</v>
       </c>
       <c r="B235" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C235" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D235">
         <v>90</v>
@@ -8269,10 +8283,10 @@
         <v>37</v>
       </c>
       <c r="B236" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C236" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D236">
         <v>7</v>
@@ -8289,10 +8303,10 @@
         <v>38</v>
       </c>
       <c r="B237" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C237" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D237">
         <v>56</v>
@@ -8309,10 +8323,10 @@
         <v>37</v>
       </c>
       <c r="B238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C238" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D238">
         <v>50</v>
@@ -8329,10 +8343,10 @@
         <v>38</v>
       </c>
       <c r="B239" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C239" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D239">
         <v>26</v>
@@ -8349,10 +8363,10 @@
         <v>172</v>
       </c>
       <c r="B240" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C240" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D240">
         <v>69</v>
@@ -8369,10 +8383,10 @@
         <v>173</v>
       </c>
       <c r="B241" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C241" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D241">
         <v>6</v>
@@ -8389,10 +8403,10 @@
         <v>174</v>
       </c>
       <c r="B242" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C242" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D242">
         <v>90</v>
@@ -8409,10 +8423,10 @@
         <v>84</v>
       </c>
       <c r="B243" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C243" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D243">
         <v>62</v>
@@ -8429,10 +8443,10 @@
         <v>83</v>
       </c>
       <c r="B244" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C244" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D244">
         <v>94</v>
@@ -8449,10 +8463,10 @@
         <v>175</v>
       </c>
       <c r="B245" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C245" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D245">
         <v>85</v>
@@ -8469,10 +8483,10 @@
         <v>176</v>
       </c>
       <c r="B246" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C246" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D246">
         <v>69</v>
@@ -8489,10 +8503,10 @@
         <v>158</v>
       </c>
       <c r="B247" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C247" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D247">
         <v>40</v>
@@ -8509,10 +8523,10 @@
         <v>157</v>
       </c>
       <c r="B248" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C248" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D248">
         <v>93</v>
@@ -8529,10 +8543,10 @@
         <v>64</v>
       </c>
       <c r="B249" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C249" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D249">
         <v>43</v>
@@ -8549,10 +8563,10 @@
         <v>44</v>
       </c>
       <c r="B250" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C250" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D250">
         <v>31</v>
@@ -8569,10 +8583,10 @@
         <v>177</v>
       </c>
       <c r="B251" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C251" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D251">
         <v>92</v>
@@ -8589,10 +8603,10 @@
         <v>51</v>
       </c>
       <c r="B252" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C252" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D252">
         <v>45</v>
@@ -8609,10 +8623,10 @@
         <v>178</v>
       </c>
       <c r="B253" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C253" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D253">
         <v>66</v>
@@ -8629,10 +8643,10 @@
         <v>179</v>
       </c>
       <c r="B254" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C254" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D254">
         <v>93</v>
@@ -8649,10 +8663,10 @@
         <v>180</v>
       </c>
       <c r="B255" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C255" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D255">
         <v>15</v>
@@ -8669,10 +8683,10 @@
         <v>13</v>
       </c>
       <c r="B256" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C256" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D256">
         <v>31</v>
@@ -8689,10 +8703,10 @@
         <v>14</v>
       </c>
       <c r="B257" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C257" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D257">
         <v>12</v>
@@ -8709,10 +8723,10 @@
         <v>181</v>
       </c>
       <c r="B258" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C258" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D258">
         <v>27</v>
@@ -8729,10 +8743,10 @@
         <v>182</v>
       </c>
       <c r="B259" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C259" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D259">
         <v>99</v>
@@ -8749,10 +8763,10 @@
         <v>52</v>
       </c>
       <c r="B260" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C260" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D260">
         <v>45</v>
@@ -8769,10 +8783,10 @@
         <v>53</v>
       </c>
       <c r="B261" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C261" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D261">
         <v>74</v>
@@ -8789,10 +8803,10 @@
         <v>37</v>
       </c>
       <c r="B262" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C262" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D262">
         <v>58</v>
@@ -8809,10 +8823,10 @@
         <v>38</v>
       </c>
       <c r="B263" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C263" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D263">
         <v>55</v>
@@ -8829,10 +8843,10 @@
         <v>183</v>
       </c>
       <c r="B264" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C264" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D264">
         <v>92</v>
@@ -8849,10 +8863,10 @@
         <v>184</v>
       </c>
       <c r="B265" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C265" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D265">
         <v>70</v>
@@ -8869,10 +8883,10 @@
         <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C266" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D266">
         <v>95</v>
@@ -8889,10 +8903,10 @@
         <v>105</v>
       </c>
       <c r="B267" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C267" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D267">
         <v>84</v>
@@ -8909,10 +8923,10 @@
         <v>106</v>
       </c>
       <c r="B268" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C268" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D268">
         <v>43</v>
@@ -8929,10 +8943,10 @@
         <v>107</v>
       </c>
       <c r="B269" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C269" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D269">
         <v>71</v>
@@ -8949,10 +8963,10 @@
         <v>108</v>
       </c>
       <c r="B270" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C270" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D270">
         <v>23</v>
@@ -8969,10 +8983,10 @@
         <v>185</v>
       </c>
       <c r="B271" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C271" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D271">
         <v>43</v>
@@ -8989,10 +9003,10 @@
         <v>186</v>
       </c>
       <c r="B272" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C272" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D272">
         <v>91</v>
@@ -9009,10 +9023,10 @@
         <v>187</v>
       </c>
       <c r="B273" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C273" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D273">
         <v>79</v>
@@ -9029,10 +9043,10 @@
         <v>188</v>
       </c>
       <c r="B274" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C274" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D274">
         <v>32</v>
@@ -9049,10 +9063,10 @@
         <v>189</v>
       </c>
       <c r="B275" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C275" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D275">
         <v>97</v>
@@ -9069,10 +9083,10 @@
         <v>190</v>
       </c>
       <c r="B276" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C276" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D276">
         <v>15</v>
@@ -9089,10 +9103,10 @@
         <v>191</v>
       </c>
       <c r="B277" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C277" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D277">
         <v>97</v>
@@ -9109,10 +9123,10 @@
         <v>192</v>
       </c>
       <c r="B278" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C278" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D278">
         <v>88</v>
@@ -9129,10 +9143,10 @@
         <v>193</v>
       </c>
       <c r="B279" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C279" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D279">
         <v>73</v>
@@ -9149,10 +9163,10 @@
         <v>13</v>
       </c>
       <c r="B280" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C280" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D280">
         <v>50</v>
@@ -9169,10 +9183,10 @@
         <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C281" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D281">
         <v>45</v>
@@ -9189,10 +9203,10 @@
         <v>37</v>
       </c>
       <c r="B282" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C282" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D282">
         <v>69</v>
@@ -9209,10 +9223,10 @@
         <v>38</v>
       </c>
       <c r="B283" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C283" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D283">
         <v>87</v>
@@ -9229,10 +9243,10 @@
         <v>194</v>
       </c>
       <c r="B284" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C284" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D284">
         <v>33</v>
@@ -9249,10 +9263,10 @@
         <v>195</v>
       </c>
       <c r="B285" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C285" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D285">
         <v>28</v>
@@ -9269,10 +9283,10 @@
         <v>196</v>
       </c>
       <c r="B286" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C286" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D286">
         <v>83</v>
@@ -9289,10 +9303,10 @@
         <v>197</v>
       </c>
       <c r="B287" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C287" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D287">
         <v>20</v>
@@ -9309,10 +9323,10 @@
         <v>196</v>
       </c>
       <c r="B288" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C288" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D288">
         <v>86</v>
@@ -9329,10 +9343,10 @@
         <v>197</v>
       </c>
       <c r="B289" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C289" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D289">
         <v>81</v>
@@ -9349,10 +9363,10 @@
         <v>198</v>
       </c>
       <c r="B290" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C290" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D290">
         <v>85</v>
@@ -9369,10 +9383,10 @@
         <v>199</v>
       </c>
       <c r="B291" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C291" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D291">
         <v>12</v>
@@ -9389,10 +9403,10 @@
         <v>200</v>
       </c>
       <c r="B292" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C292" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D292">
         <v>12</v>
@@ -9409,10 +9423,10 @@
         <v>201</v>
       </c>
       <c r="B293" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C293" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D293">
         <v>23</v>
@@ -9429,10 +9443,10 @@
         <v>202</v>
       </c>
       <c r="B294" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C294" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D294">
         <v>94</v>
@@ -9449,10 +9463,10 @@
         <v>203</v>
       </c>
       <c r="B295" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C295" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D295">
         <v>41</v>
@@ -9469,10 +9483,10 @@
         <v>204</v>
       </c>
       <c r="B296" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C296" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D296">
         <v>18</v>
@@ -9489,10 +9503,10 @@
         <v>205</v>
       </c>
       <c r="B297" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C297" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D297">
         <v>59</v>
@@ -9509,10 +9523,10 @@
         <v>206</v>
       </c>
       <c r="B298" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C298" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D298">
         <v>40</v>
@@ -9529,10 +9543,10 @@
         <v>207</v>
       </c>
       <c r="B299" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C299" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D299">
         <v>27</v>
@@ -9549,10 +9563,10 @@
         <v>208</v>
       </c>
       <c r="B300" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C300" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D300">
         <v>44</v>
@@ -9569,10 +9583,10 @@
         <v>209</v>
       </c>
       <c r="B301" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C301" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D301">
         <v>87</v>
@@ -9589,10 +9603,10 @@
         <v>210</v>
       </c>
       <c r="B302" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C302" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D302">
         <v>44</v>
@@ -9609,10 +9623,10 @@
         <v>211</v>
       </c>
       <c r="B303" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C303" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D303">
         <v>99</v>
@@ -9629,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C304" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D304">
         <v>100</v>
@@ -9649,10 +9663,10 @@
         <v>212</v>
       </c>
       <c r="B305" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C305" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D305">
         <v>50</v>
@@ -9669,10 +9683,10 @@
         <v>213</v>
       </c>
       <c r="B306" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C306" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D306">
         <v>62</v>
@@ -9689,10 +9703,10 @@
         <v>214</v>
       </c>
       <c r="B307" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C307" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D307">
         <v>2</v>
@@ -9709,10 +9723,10 @@
         <v>215</v>
       </c>
       <c r="B308" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C308" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D308">
         <v>45</v>
@@ -9729,10 +9743,10 @@
         <v>216</v>
       </c>
       <c r="B309" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C309" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D309">
         <v>91</v>
@@ -9749,10 +9763,10 @@
         <v>178</v>
       </c>
       <c r="B310" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C310" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D310">
         <v>68</v>
@@ -9769,10 +9783,10 @@
         <v>179</v>
       </c>
       <c r="B311" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C311" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D311">
         <v>32</v>
@@ -9789,10 +9803,10 @@
         <v>217</v>
       </c>
       <c r="B312" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C312" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D312">
         <v>7</v>
@@ -9809,10 +9823,10 @@
         <v>218</v>
       </c>
       <c r="B313" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C313" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D313">
         <v>91</v>
@@ -9829,10 +9843,10 @@
         <v>219</v>
       </c>
       <c r="B314" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C314" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D314">
         <v>57</v>
@@ -9849,10 +9863,10 @@
         <v>220</v>
       </c>
       <c r="B315" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C315" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D315">
         <v>60</v>
@@ -9869,10 +9883,10 @@
         <v>221</v>
       </c>
       <c r="B316" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C316" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D316">
         <v>57</v>
@@ -9889,10 +9903,10 @@
         <v>222</v>
       </c>
       <c r="B317" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C317" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D317">
         <v>67</v>
@@ -9909,10 +9923,10 @@
         <v>223</v>
       </c>
       <c r="B318" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C318" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D318">
         <v>9</v>
@@ -9929,10 +9943,10 @@
         <v>224</v>
       </c>
       <c r="B319" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C319" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D319">
         <v>60</v>
@@ -9949,10 +9963,10 @@
         <v>225</v>
       </c>
       <c r="B320" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C320" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D320">
         <v>31</v>
@@ -9969,10 +9983,10 @@
         <v>226</v>
       </c>
       <c r="B321" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C321" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D321">
         <v>29</v>
@@ -9989,10 +10003,10 @@
         <v>227</v>
       </c>
       <c r="B322" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C322" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D322">
         <v>67</v>
@@ -10009,10 +10023,10 @@
         <v>228</v>
       </c>
       <c r="B323" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C323" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -10029,10 +10043,10 @@
         <v>229</v>
       </c>
       <c r="B324" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C324" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D324">
         <v>94</v>
@@ -10049,10 +10063,10 @@
         <v>230</v>
       </c>
       <c r="B325" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C325" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D325">
         <v>50</v>
@@ -10069,10 +10083,10 @@
         <v>231</v>
       </c>
       <c r="B326" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C326" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D326">
         <v>64</v>
@@ -10089,10 +10103,10 @@
         <v>232</v>
       </c>
       <c r="B327" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C327" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D327">
         <v>20</v>
@@ -10109,10 +10123,10 @@
         <v>233</v>
       </c>
       <c r="B328" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C328" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D328">
         <v>56</v>
@@ -10129,10 +10143,10 @@
         <v>234</v>
       </c>
       <c r="B329" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C329" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D329">
         <v>33</v>
@@ -10149,10 +10163,10 @@
         <v>235</v>
       </c>
       <c r="B330" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C330" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D330">
         <v>38</v>
@@ -10169,10 +10183,10 @@
         <v>236</v>
       </c>
       <c r="B331" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C331" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D331">
         <v>31</v>
@@ -10189,10 +10203,10 @@
         <v>237</v>
       </c>
       <c r="B332" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C332" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D332">
         <v>92</v>
@@ -10209,10 +10223,10 @@
         <v>238</v>
       </c>
       <c r="B333" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C333" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D333">
         <v>5</v>
@@ -10229,10 +10243,10 @@
         <v>239</v>
       </c>
       <c r="B334" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C334" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D334">
         <v>97</v>
@@ -10249,10 +10263,10 @@
         <v>52</v>
       </c>
       <c r="B335" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C335" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D335">
         <v>71</v>
@@ -10269,10 +10283,10 @@
         <v>53</v>
       </c>
       <c r="B336" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C336" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D336">
         <v>30</v>
@@ -10289,10 +10303,10 @@
         <v>240</v>
       </c>
       <c r="B337" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C337" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D337">
         <v>58</v>
@@ -10309,10 +10323,10 @@
         <v>241</v>
       </c>
       <c r="B338" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C338" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D338">
         <v>5</v>
@@ -10329,10 +10343,10 @@
         <v>242</v>
       </c>
       <c r="B339" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C339" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D339">
         <v>93</v>
@@ -10349,10 +10363,10 @@
         <v>243</v>
       </c>
       <c r="B340" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C340" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D340">
         <v>60</v>
@@ -10369,10 +10383,10 @@
         <v>244</v>
       </c>
       <c r="B341" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C341" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D341">
         <v>82</v>
@@ -10389,10 +10403,10 @@
         <v>245</v>
       </c>
       <c r="B342" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C342" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D342">
         <v>36</v>
@@ -10409,10 +10423,10 @@
         <v>246</v>
       </c>
       <c r="B343" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C343" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D343">
         <v>2</v>
@@ -10429,10 +10443,10 @@
         <v>247</v>
       </c>
       <c r="B344" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C344" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D344">
         <v>19</v>
@@ -10449,10 +10463,10 @@
         <v>248</v>
       </c>
       <c r="B345" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C345" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D345">
         <v>27</v>
@@ -10469,10 +10483,10 @@
         <v>249</v>
       </c>
       <c r="B346" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C346" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D346">
         <v>2</v>
@@ -10489,10 +10503,10 @@
         <v>250</v>
       </c>
       <c r="B347" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C347" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D347">
         <v>10</v>
@@ -10509,10 +10523,10 @@
         <v>251</v>
       </c>
       <c r="B348" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C348" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D348">
         <v>32</v>
@@ -10529,10 +10543,10 @@
         <v>252</v>
       </c>
       <c r="B349" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C349" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D349">
         <v>21</v>
@@ -10549,10 +10563,10 @@
         <v>253</v>
       </c>
       <c r="B350" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C350" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D350">
         <v>55</v>
@@ -10569,10 +10583,10 @@
         <v>254</v>
       </c>
       <c r="B351" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C351" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D351">
         <v>65</v>
@@ -10589,10 +10603,10 @@
         <v>255</v>
       </c>
       <c r="B352" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C352" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D352">
         <v>56</v>
@@ -10609,10 +10623,10 @@
         <v>256</v>
       </c>
       <c r="B353" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C353" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D353">
         <v>37</v>
@@ -10629,10 +10643,10 @@
         <v>257</v>
       </c>
       <c r="B354" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C354" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D354">
         <v>21</v>
@@ -10649,10 +10663,10 @@
         <v>258</v>
       </c>
       <c r="B355" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C355" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D355">
         <v>49</v>
@@ -10669,10 +10683,10 @@
         <v>198</v>
       </c>
       <c r="B356" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C356" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D356">
         <v>16</v>
@@ -10689,10 +10703,10 @@
         <v>259</v>
       </c>
       <c r="B357" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C357" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D357">
         <v>89</v>
@@ -10709,10 +10723,10 @@
         <v>64</v>
       </c>
       <c r="B358" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C358" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D358">
         <v>89</v>
@@ -10729,10 +10743,10 @@
         <v>44</v>
       </c>
       <c r="B359" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C359" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D359">
         <v>93</v>
@@ -10749,10 +10763,10 @@
         <v>260</v>
       </c>
       <c r="B360" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C360" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D360">
         <v>90</v>
@@ -10769,10 +10783,10 @@
         <v>261</v>
       </c>
       <c r="B361" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C361" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D361">
         <v>46</v>
@@ -10789,10 +10803,10 @@
         <v>262</v>
       </c>
       <c r="B362" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C362" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D362">
         <v>30</v>
@@ -10809,10 +10823,10 @@
         <v>263</v>
       </c>
       <c r="B363" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C363" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D363">
         <v>13</v>
@@ -10829,10 +10843,10 @@
         <v>264</v>
       </c>
       <c r="B364" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C364" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D364">
         <v>93</v>
@@ -10849,10 +10863,10 @@
         <v>265</v>
       </c>
       <c r="B365" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C365" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D365">
         <v>21</v>
@@ -10869,10 +10883,10 @@
         <v>266</v>
       </c>
       <c r="B366" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C366" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D366">
         <v>5</v>
@@ -10889,10 +10903,10 @@
         <v>267</v>
       </c>
       <c r="B367" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C367" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D367">
         <v>83</v>
@@ -10909,10 +10923,10 @@
         <v>268</v>
       </c>
       <c r="B368" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C368" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D368">
         <v>64</v>
@@ -10929,10 +10943,10 @@
         <v>269</v>
       </c>
       <c r="B369" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C369" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D369">
         <v>67</v>
@@ -10949,10 +10963,10 @@
         <v>270</v>
       </c>
       <c r="B370" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C370" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D370">
         <v>58</v>
@@ -10969,10 +10983,10 @@
         <v>271</v>
       </c>
       <c r="B371" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C371" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D371">
         <v>83</v>
@@ -10989,10 +11003,10 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C372" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D372">
         <v>2</v>
@@ -11009,10 +11023,10 @@
         <v>272</v>
       </c>
       <c r="B373" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C373" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D373">
         <v>33</v>
@@ -11029,10 +11043,10 @@
         <v>13</v>
       </c>
       <c r="B374" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C374" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D374">
         <v>86</v>
@@ -11049,10 +11063,10 @@
         <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C375" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D375">
         <v>76</v>
@@ -11069,10 +11083,10 @@
         <v>71</v>
       </c>
       <c r="B376" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C376" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D376">
         <v>47</v>
@@ -11089,10 +11103,10 @@
         <v>70</v>
       </c>
       <c r="B377" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C377" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D377">
         <v>45</v>
@@ -11109,10 +11123,10 @@
         <v>152</v>
       </c>
       <c r="B378" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C378" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D378">
         <v>3</v>
@@ -11129,10 +11143,10 @@
         <v>153</v>
       </c>
       <c r="B379" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C379" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D379">
         <v>44</v>
@@ -11149,10 +11163,10 @@
         <v>273</v>
       </c>
       <c r="B380" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C380" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D380">
         <v>93</v>
@@ -11169,10 +11183,10 @@
         <v>274</v>
       </c>
       <c r="B381" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C381" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D381">
         <v>60</v>
@@ -11189,10 +11203,10 @@
         <v>64</v>
       </c>
       <c r="B382" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C382" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D382">
         <v>48</v>
@@ -11209,10 +11223,10 @@
         <v>44</v>
       </c>
       <c r="B383" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C383" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D383">
         <v>46</v>
@@ -11229,10 +11243,10 @@
         <v>275</v>
       </c>
       <c r="B384" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C384" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D384">
         <v>52</v>
@@ -11249,10 +11263,10 @@
         <v>267</v>
       </c>
       <c r="B385" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C385" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D385">
         <v>22</v>
@@ -11269,10 +11283,10 @@
         <v>268</v>
       </c>
       <c r="B386" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C386" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D386">
         <v>7</v>
@@ -11289,10 +11303,10 @@
         <v>154</v>
       </c>
       <c r="B387" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C387" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D387">
         <v>60</v>
@@ -11309,10 +11323,10 @@
         <v>155</v>
       </c>
       <c r="B388" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C388" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D388">
         <v>46</v>
@@ -11329,10 +11343,10 @@
         <v>276</v>
       </c>
       <c r="B389" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C389" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D389">
         <v>57</v>
@@ -11349,10 +11363,10 @@
         <v>277</v>
       </c>
       <c r="B390" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C390" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D390">
         <v>3</v>
@@ -11369,10 +11383,10 @@
         <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C391" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D391">
         <v>58</v>
@@ -11389,10 +11403,10 @@
         <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C392" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D392">
         <v>72</v>
@@ -11409,10 +11423,10 @@
         <v>278</v>
       </c>
       <c r="B393" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C393" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D393">
         <v>75</v>
@@ -11429,10 +11443,10 @@
         <v>279</v>
       </c>
       <c r="B394" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C394" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D394">
         <v>49</v>
@@ -11449,10 +11463,10 @@
         <v>13</v>
       </c>
       <c r="B395" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C395" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D395">
         <v>63</v>
@@ -11469,10 +11483,10 @@
         <v>280</v>
       </c>
       <c r="B396" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C396" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D396">
         <v>68</v>
@@ -11489,10 +11503,10 @@
         <v>152</v>
       </c>
       <c r="B397" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C397" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D397">
         <v>65</v>
@@ -11509,10 +11523,10 @@
         <v>153</v>
       </c>
       <c r="B398" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C398" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D398">
         <v>85</v>
@@ -11529,10 +11543,10 @@
         <v>281</v>
       </c>
       <c r="B399" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C399" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D399">
         <v>85</v>
@@ -11549,10 +11563,10 @@
         <v>282</v>
       </c>
       <c r="B400" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C400" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D400">
         <v>63</v>
@@ -11569,10 +11583,10 @@
         <v>283</v>
       </c>
       <c r="B401" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C401" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D401">
         <v>38</v>
@@ -11589,10 +11603,10 @@
         <v>284</v>
       </c>
       <c r="B402" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C402" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D402">
         <v>16</v>
@@ -11609,10 +11623,10 @@
         <v>37</v>
       </c>
       <c r="B403" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C403" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D403">
         <v>80</v>
@@ -11629,10 +11643,10 @@
         <v>38</v>
       </c>
       <c r="B404" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C404" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D404">
         <v>89</v>
@@ -11649,10 +11663,10 @@
         <v>56</v>
       </c>
       <c r="B405" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C405" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D405">
         <v>8</v>
@@ -11669,10 +11683,10 @@
         <v>57</v>
       </c>
       <c r="B406" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C406" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D406">
         <v>48</v>
@@ -11689,10 +11703,10 @@
         <v>64</v>
       </c>
       <c r="B407" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C407" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D407">
         <v>96</v>
@@ -11709,10 +11723,10 @@
         <v>44</v>
       </c>
       <c r="B408" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C408" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D408">
         <v>43</v>
@@ -11729,10 +11743,10 @@
         <v>112</v>
       </c>
       <c r="B409" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C409" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D409">
         <v>44</v>
@@ -11749,10 +11763,10 @@
         <v>104</v>
       </c>
       <c r="B410" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C410" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D410">
         <v>98</v>
@@ -11769,10 +11783,10 @@
         <v>105</v>
       </c>
       <c r="B411" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C411" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D411">
         <v>58</v>
@@ -11789,10 +11803,10 @@
         <v>106</v>
       </c>
       <c r="B412" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C412" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D412">
         <v>4</v>
@@ -11809,10 +11823,10 @@
         <v>107</v>
       </c>
       <c r="B413" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C413" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D413">
         <v>10</v>
@@ -11829,10 +11843,10 @@
         <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C414" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D414">
         <v>46</v>
@@ -11849,10 +11863,10 @@
         <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C415" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D415">
         <v>45</v>
@@ -11869,10 +11883,10 @@
         <v>51</v>
       </c>
       <c r="B416" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C416" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D416">
         <v>46</v>
@@ -11889,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="B417" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C417" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D417">
         <v>41</v>
@@ -11909,10 +11923,10 @@
         <v>152</v>
       </c>
       <c r="B418" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C418" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D418">
         <v>18</v>
@@ -11929,10 +11943,10 @@
         <v>153</v>
       </c>
       <c r="B419" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C419" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D419">
         <v>38</v>
@@ -11949,10 +11963,10 @@
         <v>285</v>
       </c>
       <c r="B420" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C420" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -11969,10 +11983,10 @@
         <v>286</v>
       </c>
       <c r="B421" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C421" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D421">
         <v>35</v>
@@ -11989,10 +12003,10 @@
         <v>287</v>
       </c>
       <c r="B422" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C422" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D422">
         <v>77</v>
@@ -12009,10 +12023,10 @@
         <v>288</v>
       </c>
       <c r="B423" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C423" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D423">
         <v>93</v>
@@ -12029,10 +12043,10 @@
         <v>6</v>
       </c>
       <c r="B424" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C424" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D424">
         <v>61</v>
@@ -12049,10 +12063,10 @@
         <v>289</v>
       </c>
       <c r="B425" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C425" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D425">
         <v>63</v>
@@ -12069,10 +12083,10 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C426" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D426">
         <v>8</v>
@@ -12089,10 +12103,10 @@
         <v>290</v>
       </c>
       <c r="B427" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C427" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D427">
         <v>46</v>
@@ -12109,10 +12123,10 @@
         <v>13</v>
       </c>
       <c r="B428" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C428" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D428">
         <v>44</v>
@@ -12129,10 +12143,10 @@
         <v>14</v>
       </c>
       <c r="B429" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C429" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D429">
         <v>21</v>
@@ -12149,10 +12163,10 @@
         <v>71</v>
       </c>
       <c r="B430" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C430" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D430">
         <v>13</v>
@@ -12169,10 +12183,10 @@
         <v>70</v>
       </c>
       <c r="B431" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C431" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D431">
         <v>41</v>
@@ -12189,10 +12203,10 @@
         <v>291</v>
       </c>
       <c r="B432" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C432" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D432">
         <v>86</v>
@@ -12209,10 +12223,10 @@
         <v>292</v>
       </c>
       <c r="B433" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C433" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D433">
         <v>22</v>
@@ -12229,10 +12243,10 @@
         <v>293</v>
       </c>
       <c r="B434" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C434" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D434">
         <v>98</v>
@@ -12249,10 +12263,10 @@
         <v>294</v>
       </c>
       <c r="B435" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C435" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D435">
         <v>74</v>
@@ -12269,10 +12283,10 @@
         <v>37</v>
       </c>
       <c r="B436" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C436" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D436">
         <v>57</v>
@@ -12289,10 +12303,10 @@
         <v>38</v>
       </c>
       <c r="B437" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C437" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D437">
         <v>40</v>
@@ -12309,10 +12323,10 @@
         <v>37</v>
       </c>
       <c r="B438" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C438" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D438">
         <v>25</v>
@@ -12329,10 +12343,10 @@
         <v>38</v>
       </c>
       <c r="B439" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C439" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D439">
         <v>83</v>
@@ -12349,10 +12363,10 @@
         <v>295</v>
       </c>
       <c r="B440" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C440" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D440">
         <v>14</v>
@@ -12369,10 +12383,10 @@
         <v>295</v>
       </c>
       <c r="B441" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C441" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D441">
         <v>30</v>
@@ -12389,10 +12403,10 @@
         <v>296</v>
       </c>
       <c r="B442" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C442" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D442">
         <v>89</v>
@@ -12409,10 +12423,10 @@
         <v>296</v>
       </c>
       <c r="B443" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C443" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -12429,10 +12443,10 @@
         <v>297</v>
       </c>
       <c r="B444" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C444" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D444">
         <v>53</v>
@@ -12449,10 +12463,10 @@
         <v>64</v>
       </c>
       <c r="B445" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C445" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D445">
         <v>40</v>
@@ -12469,10 +12483,10 @@
         <v>44</v>
       </c>
       <c r="B446" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C446" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D446">
         <v>41</v>
@@ -12489,10 +12503,10 @@
         <v>6</v>
       </c>
       <c r="B447" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C447" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -12509,10 +12523,10 @@
         <v>13</v>
       </c>
       <c r="B448" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C448" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D448">
         <v>63</v>
@@ -12529,10 +12543,10 @@
         <v>14</v>
       </c>
       <c r="B449" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C449" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D449">
         <v>97</v>
@@ -12549,10 +12563,10 @@
         <v>52</v>
       </c>
       <c r="B450" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C450" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D450">
         <v>32</v>
@@ -12569,10 +12583,10 @@
         <v>53</v>
       </c>
       <c r="B451" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C451" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D451">
         <v>54</v>
@@ -12589,10 +12603,10 @@
         <v>37</v>
       </c>
       <c r="B452" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C452" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D452">
         <v>71</v>
@@ -12609,10 +12623,10 @@
         <v>38</v>
       </c>
       <c r="B453" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C453" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D453">
         <v>3</v>
@@ -12629,10 +12643,10 @@
         <v>84</v>
       </c>
       <c r="B454" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C454" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D454">
         <v>90</v>
@@ -12649,10 +12663,10 @@
         <v>83</v>
       </c>
       <c r="B455" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C455" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D455">
         <v>56</v>
@@ -12669,10 +12683,10 @@
         <v>298</v>
       </c>
       <c r="B456" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C456" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D456">
         <v>14</v>
@@ -12689,10 +12703,10 @@
         <v>299</v>
       </c>
       <c r="B457" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C457" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D457">
         <v>59</v>
@@ -12709,10 +12723,10 @@
         <v>300</v>
       </c>
       <c r="B458" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C458" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D458">
         <v>91</v>
@@ -12729,10 +12743,10 @@
         <v>301</v>
       </c>
       <c r="B459" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C459" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D459">
         <v>98</v>
@@ -12749,10 +12763,10 @@
         <v>302</v>
       </c>
       <c r="B460" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C460" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D460">
         <v>12</v>
@@ -12769,10 +12783,10 @@
         <v>112</v>
       </c>
       <c r="B461" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C461" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D461">
         <v>13</v>
@@ -12789,10 +12803,10 @@
         <v>104</v>
       </c>
       <c r="B462" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C462" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D462">
         <v>94</v>
@@ -12809,10 +12823,10 @@
         <v>105</v>
       </c>
       <c r="B463" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C463" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D463">
         <v>15</v>
@@ -12829,10 +12843,10 @@
         <v>106</v>
       </c>
       <c r="B464" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C464" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D464">
         <v>74</v>
@@ -12849,10 +12863,10 @@
         <v>107</v>
       </c>
       <c r="B465" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C465" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D465">
         <v>17</v>
@@ -12869,10 +12883,10 @@
         <v>6</v>
       </c>
       <c r="B466" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C466" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D466">
         <v>36</v>
@@ -12889,10 +12903,10 @@
         <v>164</v>
       </c>
       <c r="B467" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C467" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D467">
         <v>98</v>
@@ -12909,10 +12923,10 @@
         <v>303</v>
       </c>
       <c r="B468" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C468" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D468">
         <v>90</v>
@@ -12929,10 +12943,10 @@
         <v>74</v>
       </c>
       <c r="B469" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C469" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D469">
         <v>97</v>
@@ -12949,10 +12963,10 @@
         <v>304</v>
       </c>
       <c r="B470" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C470" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D470">
         <v>80</v>
@@ -12969,10 +12983,10 @@
         <v>152</v>
       </c>
       <c r="B471" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C471" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D471">
         <v>16</v>
@@ -12989,10 +13003,10 @@
         <v>153</v>
       </c>
       <c r="B472" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C472" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D472">
         <v>5</v>
@@ -13009,10 +13023,10 @@
         <v>305</v>
       </c>
       <c r="B473" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C473" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D473">
         <v>65</v>
@@ -13029,10 +13043,10 @@
         <v>306</v>
       </c>
       <c r="B474" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C474" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D474">
         <v>38</v>
@@ -13049,10 +13063,10 @@
         <v>307</v>
       </c>
       <c r="B475" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C475" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D475">
         <v>54</v>
@@ -13069,10 +13083,10 @@
         <v>308</v>
       </c>
       <c r="B476" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C476" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D476">
         <v>73</v>
@@ -13089,10 +13103,10 @@
         <v>154</v>
       </c>
       <c r="B477" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C477" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D477">
         <v>59</v>
@@ -13109,10 +13123,10 @@
         <v>155</v>
       </c>
       <c r="B478" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C478" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D478">
         <v>67</v>
@@ -13129,10 +13143,10 @@
         <v>309</v>
       </c>
       <c r="B479" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C479" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D479">
         <v>5</v>
@@ -13149,10 +13163,10 @@
         <v>310</v>
       </c>
       <c r="B480" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C480" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D480">
         <v>62</v>
@@ -13169,10 +13183,10 @@
         <v>311</v>
       </c>
       <c r="B481" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C481" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D481">
         <v>70</v>
@@ -13189,10 +13203,10 @@
         <v>312</v>
       </c>
       <c r="B482" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C482" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D482">
         <v>26</v>
@@ -13209,10 +13223,10 @@
         <v>64</v>
       </c>
       <c r="B483" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C483" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D483">
         <v>66</v>
@@ -13229,10 +13243,10 @@
         <v>44</v>
       </c>
       <c r="B484" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C484" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D484">
         <v>43</v>
@@ -13249,10 +13263,10 @@
         <v>313</v>
       </c>
       <c r="B485" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C485" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D485">
         <v>91</v>
@@ -13269,10 +13283,10 @@
         <v>314</v>
       </c>
       <c r="B486" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C486" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D486">
         <v>18</v>
@@ -13289,10 +13303,10 @@
         <v>315</v>
       </c>
       <c r="B487" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C487" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D487">
         <v>23</v>
@@ -13309,10 +13323,10 @@
         <v>316</v>
       </c>
       <c r="B488" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C488" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D488">
         <v>53</v>
@@ -13329,10 +13343,10 @@
         <v>317</v>
       </c>
       <c r="B489" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C489" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D489">
         <v>64</v>
@@ -13349,10 +13363,10 @@
         <v>318</v>
       </c>
       <c r="B490" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C490" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D490">
         <v>30</v>
@@ -13369,10 +13383,10 @@
         <v>319</v>
       </c>
       <c r="B491" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C491" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D491">
         <v>54</v>
@@ -13389,10 +13403,10 @@
         <v>320</v>
       </c>
       <c r="B492" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C492" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D492">
         <v>33</v>
@@ -13409,10 +13423,10 @@
         <v>321</v>
       </c>
       <c r="B493" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C493" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D493">
         <v>99</v>
@@ -13429,10 +13443,10 @@
         <v>322</v>
       </c>
       <c r="B494" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C494" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D494">
         <v>54</v>
@@ -13449,10 +13463,10 @@
         <v>323</v>
       </c>
       <c r="B495" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C495" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D495">
         <v>83</v>
@@ -13469,10 +13483,10 @@
         <v>324</v>
       </c>
       <c r="B496" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C496" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D496">
         <v>62</v>
@@ -13489,10 +13503,10 @@
         <v>324</v>
       </c>
       <c r="B497" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C497" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D497">
         <v>2</v>
@@ -13509,10 +13523,10 @@
         <v>13</v>
       </c>
       <c r="B498" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C498" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D498">
         <v>93</v>
@@ -13529,10 +13543,10 @@
         <v>14</v>
       </c>
       <c r="B499" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C499" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D499">
         <v>8</v>
@@ -13549,10 +13563,10 @@
         <v>325</v>
       </c>
       <c r="B500" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C500" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D500">
         <v>69</v>
@@ -13569,10 +13583,10 @@
         <v>326</v>
       </c>
       <c r="B501" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C501" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D501">
         <v>59</v>
@@ -13589,10 +13603,10 @@
         <v>327</v>
       </c>
       <c r="B502" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C502" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D502">
         <v>8</v>
@@ -13609,10 +13623,10 @@
         <v>328</v>
       </c>
       <c r="B503" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C503" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D503">
         <v>89</v>
@@ -13629,10 +13643,10 @@
         <v>329</v>
       </c>
       <c r="B504" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C504" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D504">
         <v>61</v>
@@ -13649,10 +13663,10 @@
         <v>330</v>
       </c>
       <c r="B505" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C505" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D505">
         <v>79</v>
@@ -13669,10 +13683,10 @@
         <v>331</v>
       </c>
       <c r="B506" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C506" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D506">
         <v>88</v>
@@ -13689,10 +13703,10 @@
         <v>332</v>
       </c>
       <c r="B507" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C507" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D507">
         <v>14</v>
@@ -13709,10 +13723,10 @@
         <v>333</v>
       </c>
       <c r="B508" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C508" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D508">
         <v>30</v>
@@ -13729,10 +13743,10 @@
         <v>334</v>
       </c>
       <c r="B509" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C509" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D509">
         <v>84</v>
@@ -13749,10 +13763,10 @@
         <v>108</v>
       </c>
       <c r="B510" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C510" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D510">
         <v>82</v>
@@ -13769,10 +13783,10 @@
         <v>335</v>
       </c>
       <c r="B511" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C511" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D511">
         <v>34</v>
@@ -13789,10 +13803,10 @@
         <v>336</v>
       </c>
       <c r="B512" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C512" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D512">
         <v>5</v>
@@ -13809,10 +13823,10 @@
         <v>337</v>
       </c>
       <c r="B513" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C513" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D513">
         <v>18</v>
@@ -13829,10 +13843,10 @@
         <v>64</v>
       </c>
       <c r="B514" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C514" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D514">
         <v>20</v>
@@ -13849,10 +13863,10 @@
         <v>44</v>
       </c>
       <c r="B515" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C515" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D515">
         <v>99</v>
@@ -13869,10 +13883,10 @@
         <v>6</v>
       </c>
       <c r="B516" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C516" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D516">
         <v>84</v>
@@ -13889,10 +13903,10 @@
         <v>338</v>
       </c>
       <c r="B517" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C517" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D517">
         <v>70</v>
@@ -13909,10 +13923,10 @@
         <v>13</v>
       </c>
       <c r="B518" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C518" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D518">
         <v>49</v>
@@ -13929,10 +13943,10 @@
         <v>14</v>
       </c>
       <c r="B519" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C519" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D519">
         <v>66</v>
@@ -13949,10 +13963,10 @@
         <v>339</v>
       </c>
       <c r="B520" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C520" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D520">
         <v>49</v>
@@ -13969,10 +13983,10 @@
         <v>340</v>
       </c>
       <c r="B521" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C521" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D521">
         <v>51</v>
@@ -13989,10 +14003,10 @@
         <v>6</v>
       </c>
       <c r="B522" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C522" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D522">
         <v>87</v>
@@ -14009,10 +14023,10 @@
         <v>9</v>
       </c>
       <c r="B523" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C523" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D523">
         <v>73</v>
@@ -14029,10 +14043,10 @@
         <v>51</v>
       </c>
       <c r="B524" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C524" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D524">
         <v>71</v>
@@ -14049,10 +14063,10 @@
         <v>6</v>
       </c>
       <c r="B525" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C525" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D525">
         <v>69</v>
@@ -14069,10 +14083,10 @@
         <v>51</v>
       </c>
       <c r="B526" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C526" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D526">
         <v>34</v>
@@ -14089,10 +14103,10 @@
         <v>6</v>
       </c>
       <c r="B527" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C527" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D527">
         <v>70</v>
@@ -14109,10 +14123,10 @@
         <v>341</v>
       </c>
       <c r="B528" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C528" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D528">
         <v>6</v>
@@ -14129,10 +14143,10 @@
         <v>342</v>
       </c>
       <c r="B529" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C529" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D529">
         <v>79</v>
@@ -14149,10 +14163,10 @@
         <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C530" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D530">
         <v>75</v>
@@ -14169,10 +14183,10 @@
         <v>138</v>
       </c>
       <c r="B531" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C531" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D531">
         <v>70</v>
@@ -14189,10 +14203,10 @@
         <v>139</v>
       </c>
       <c r="B532" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C532" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D532">
         <v>9</v>
@@ -14209,10 +14223,10 @@
         <v>154</v>
       </c>
       <c r="B533" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C533" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D533">
         <v>58</v>
@@ -14229,10 +14243,10 @@
         <v>155</v>
       </c>
       <c r="B534" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C534" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D534">
         <v>46</v>
@@ -14249,10 +14263,10 @@
         <v>66</v>
       </c>
       <c r="B535" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C535" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D535">
         <v>8</v>
@@ -14269,10 +14283,10 @@
         <v>65</v>
       </c>
       <c r="B536" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C536" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D536">
         <v>21</v>
@@ -14289,10 +14303,10 @@
         <v>64</v>
       </c>
       <c r="B537" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C537" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D537">
         <v>32</v>
@@ -14309,10 +14323,10 @@
         <v>44</v>
       </c>
       <c r="B538" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C538" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D538">
         <v>13</v>
@@ -14329,10 +14343,10 @@
         <v>343</v>
       </c>
       <c r="B539" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C539" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D539">
         <v>69</v>
@@ -14349,10 +14363,10 @@
         <v>300</v>
       </c>
       <c r="B540" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C540" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D540">
         <v>39</v>
@@ -14369,10 +14383,10 @@
         <v>344</v>
       </c>
       <c r="B541" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C541" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D541">
         <v>74</v>
@@ -14389,10 +14403,10 @@
         <v>345</v>
       </c>
       <c r="B542" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C542" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D542">
         <v>12</v>
@@ -14409,10 +14423,10 @@
         <v>346</v>
       </c>
       <c r="B543" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C543" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D543">
         <v>44</v>
@@ -14429,10 +14443,10 @@
         <v>15</v>
       </c>
       <c r="B544" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C544" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D544">
         <v>23</v>
@@ -14449,10 +14463,10 @@
         <v>16</v>
       </c>
       <c r="B545" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C545" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D545">
         <v>72</v>
@@ -14469,10 +14483,10 @@
         <v>52</v>
       </c>
       <c r="B546" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C546" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D546">
         <v>16</v>
@@ -14489,10 +14503,10 @@
         <v>53</v>
       </c>
       <c r="B547" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C547" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D547">
         <v>19</v>
@@ -14509,10 +14523,10 @@
         <v>347</v>
       </c>
       <c r="B548" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C548" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D548">
         <v>9</v>
@@ -14529,10 +14543,10 @@
         <v>70</v>
       </c>
       <c r="B549" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C549" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D549">
         <v>36</v>
@@ -14549,10 +14563,10 @@
         <v>37</v>
       </c>
       <c r="B550" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C550" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D550">
         <v>59</v>
@@ -14569,10 +14583,10 @@
         <v>38</v>
       </c>
       <c r="B551" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C551" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D551">
         <v>49</v>
@@ -14589,10 +14603,10 @@
         <v>59</v>
       </c>
       <c r="B552" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C552" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D552">
         <v>17</v>
@@ -14609,10 +14623,10 @@
         <v>58</v>
       </c>
       <c r="B553" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C553" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D553">
         <v>44</v>
@@ -14629,10 +14643,10 @@
         <v>84</v>
       </c>
       <c r="B554" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C554" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D554">
         <v>83</v>
@@ -14649,10 +14663,10 @@
         <v>83</v>
       </c>
       <c r="B555" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C555" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D555">
         <v>50</v>
@@ -14669,10 +14683,10 @@
         <v>348</v>
       </c>
       <c r="B556" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C556" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D556">
         <v>32</v>
@@ -14689,10 +14703,10 @@
         <v>349</v>
       </c>
       <c r="B557" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C557" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D557">
         <v>44</v>
@@ -14709,10 +14723,10 @@
         <v>350</v>
       </c>
       <c r="B558" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C558" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D558">
         <v>12</v>
@@ -14729,10 +14743,10 @@
         <v>6</v>
       </c>
       <c r="B559" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C559" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D559">
         <v>12</v>
@@ -14749,10 +14763,10 @@
         <v>64</v>
       </c>
       <c r="B560" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C560" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D560">
         <v>75</v>
@@ -14769,10 +14783,10 @@
         <v>44</v>
       </c>
       <c r="B561" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C561" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D561">
         <v>55</v>
@@ -14789,10 +14803,10 @@
         <v>351</v>
       </c>
       <c r="B562" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C562" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D562">
         <v>75</v>
@@ -14809,10 +14823,10 @@
         <v>112</v>
       </c>
       <c r="B563" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C563" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D563">
         <v>89</v>
@@ -14829,10 +14843,10 @@
         <v>104</v>
       </c>
       <c r="B564" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C564" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D564">
         <v>60</v>
@@ -14849,10 +14863,10 @@
         <v>105</v>
       </c>
       <c r="B565" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C565" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D565">
         <v>53</v>
@@ -14869,10 +14883,10 @@
         <v>106</v>
       </c>
       <c r="B566" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C566" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D566">
         <v>86</v>
@@ -14889,10 +14903,10 @@
         <v>107</v>
       </c>
       <c r="B567" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C567" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D567">
         <v>20</v>
@@ -14909,10 +14923,10 @@
         <v>144</v>
       </c>
       <c r="B568" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C568" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D568">
         <v>29</v>
@@ -14929,10 +14943,10 @@
         <v>145</v>
       </c>
       <c r="B569" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C569" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D569">
         <v>38</v>
@@ -14949,10 +14963,10 @@
         <v>352</v>
       </c>
       <c r="B570" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C570" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D570">
         <v>21</v>
@@ -14969,10 +14983,10 @@
         <v>353</v>
       </c>
       <c r="B571" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C571" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D571">
         <v>8</v>
@@ -14989,10 +15003,10 @@
         <v>9</v>
       </c>
       <c r="B572" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C572" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D572">
         <v>57</v>
@@ -15009,10 +15023,10 @@
         <v>354</v>
       </c>
       <c r="B573" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C573" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D573">
         <v>44</v>
@@ -15029,10 +15043,10 @@
         <v>355</v>
       </c>
       <c r="B574" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C574" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D574">
         <v>59</v>
@@ -15049,10 +15063,10 @@
         <v>152</v>
       </c>
       <c r="B575" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C575" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D575">
         <v>85</v>
@@ -15069,10 +15083,10 @@
         <v>153</v>
       </c>
       <c r="B576" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C576" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D576">
         <v>22</v>
@@ -15089,10 +15103,10 @@
         <v>356</v>
       </c>
       <c r="B577" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C577" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D577">
         <v>23</v>
@@ -15109,10 +15123,10 @@
         <v>357</v>
       </c>
       <c r="B578" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C578" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D578">
         <v>40</v>
@@ -15129,10 +15143,10 @@
         <v>358</v>
       </c>
       <c r="B579" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C579" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D579">
         <v>34</v>
@@ -15149,10 +15163,10 @@
         <v>359</v>
       </c>
       <c r="B580" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C580" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D580">
         <v>47</v>
@@ -15169,10 +15183,10 @@
         <v>37</v>
       </c>
       <c r="B581" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C581" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D581">
         <v>52</v>
@@ -15189,10 +15203,10 @@
         <v>38</v>
       </c>
       <c r="B582" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C582" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D582">
         <v>72</v>
@@ -15209,10 +15223,10 @@
         <v>360</v>
       </c>
       <c r="B583" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C583" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D583">
         <v>28</v>
@@ -15229,10 +15243,10 @@
         <v>64</v>
       </c>
       <c r="B584" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C584" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D584">
         <v>47</v>
@@ -15249,10 +15263,10 @@
         <v>44</v>
       </c>
       <c r="B585" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C585" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D585">
         <v>76</v>
@@ -15269,10 +15283,10 @@
         <v>157</v>
       </c>
       <c r="B586" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C586" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D586">
         <v>70</v>
@@ -15289,10 +15303,10 @@
         <v>158</v>
       </c>
       <c r="B587" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C587" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D587">
         <v>8</v>
@@ -15309,10 +15323,10 @@
         <v>104</v>
       </c>
       <c r="B588" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C588" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D588">
         <v>62</v>
@@ -15329,10 +15343,10 @@
         <v>105</v>
       </c>
       <c r="B589" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C589" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D589">
         <v>19</v>
@@ -15349,10 +15363,10 @@
         <v>106</v>
       </c>
       <c r="B590" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C590" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D590">
         <v>15</v>
@@ -15369,10 +15383,10 @@
         <v>107</v>
       </c>
       <c r="B591" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C591" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D591">
         <v>48</v>
@@ -15389,10 +15403,10 @@
         <v>108</v>
       </c>
       <c r="B592" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C592" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D592">
         <v>30</v>
@@ -15409,10 +15423,10 @@
         <v>361</v>
       </c>
       <c r="B593" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C593" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D593">
         <v>16</v>
@@ -15429,10 +15443,10 @@
         <v>362</v>
       </c>
       <c r="B594" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C594" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D594">
         <v>27</v>
@@ -15449,10 +15463,10 @@
         <v>154</v>
       </c>
       <c r="B595" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C595" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D595">
         <v>87</v>
@@ -15469,10 +15483,10 @@
         <v>155</v>
       </c>
       <c r="B596" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C596" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D596">
         <v>29</v>
@@ -15489,10 +15503,10 @@
         <v>66</v>
       </c>
       <c r="B597" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C597" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D597">
         <v>43</v>
@@ -15509,10 +15523,10 @@
         <v>65</v>
       </c>
       <c r="B598" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C598" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D598">
         <v>95</v>
@@ -15529,10 +15543,10 @@
         <v>363</v>
       </c>
       <c r="B599" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C599" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D599">
         <v>50</v>
@@ -15549,10 +15563,10 @@
         <v>364</v>
       </c>
       <c r="B600" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C600" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D600">
         <v>97</v>
@@ -15569,10 +15583,10 @@
         <v>365</v>
       </c>
       <c r="B601" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C601" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D601">
         <v>19</v>
@@ -15589,10 +15603,10 @@
         <v>366</v>
       </c>
       <c r="B602" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C602" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D602">
         <v>10</v>
@@ -15609,10 +15623,10 @@
         <v>367</v>
       </c>
       <c r="B603" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C603" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D603">
         <v>60</v>
@@ -15629,10 +15643,10 @@
         <v>368</v>
       </c>
       <c r="B604" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C604" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D604">
         <v>53</v>
@@ -15649,10 +15663,10 @@
         <v>369</v>
       </c>
       <c r="B605" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C605" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D605">
         <v>12</v>
@@ -15669,10 +15683,10 @@
         <v>370</v>
       </c>
       <c r="B606" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C606" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D606">
         <v>68</v>
@@ -15689,10 +15703,10 @@
         <v>371</v>
       </c>
       <c r="B607" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C607" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D607">
         <v>24</v>
@@ -15709,10 +15723,10 @@
         <v>372</v>
       </c>
       <c r="B608" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C608" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D608">
         <v>1</v>
@@ -15729,10 +15743,10 @@
         <v>373</v>
       </c>
       <c r="B609" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C609" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D609">
         <v>35</v>
@@ -15749,10 +15763,10 @@
         <v>154</v>
       </c>
       <c r="B610" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C610" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D610">
         <v>86</v>
@@ -15769,10 +15783,10 @@
         <v>155</v>
       </c>
       <c r="B611" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C611" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D611">
         <v>84</v>
@@ -15789,10 +15803,10 @@
         <v>6</v>
       </c>
       <c r="B612" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C612" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D612">
         <v>21</v>
@@ -15809,10 +15823,10 @@
         <v>374</v>
       </c>
       <c r="B613" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C613" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D613">
         <v>63</v>
@@ -15829,10 +15843,10 @@
         <v>375</v>
       </c>
       <c r="B614" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C614" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D614">
         <v>88</v>
@@ -15849,10 +15863,10 @@
         <v>364</v>
       </c>
       <c r="B615" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C615" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D615">
         <v>32</v>
@@ -15869,10 +15883,10 @@
         <v>376</v>
       </c>
       <c r="B616" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C616" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D616">
         <v>15</v>
@@ -15889,10 +15903,10 @@
         <v>377</v>
       </c>
       <c r="B617" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C617" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D617">
         <v>28</v>
@@ -15909,10 +15923,10 @@
         <v>272</v>
       </c>
       <c r="B618" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C618" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D618">
         <v>51</v>
@@ -15929,10 +15943,10 @@
         <v>272</v>
       </c>
       <c r="B619" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C619" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D619">
         <v>90</v>
@@ -15949,10 +15963,10 @@
         <v>378</v>
       </c>
       <c r="B620" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C620" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D620">
         <v>56</v>
@@ -15969,10 +15983,10 @@
         <v>379</v>
       </c>
       <c r="B621" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C621" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D621">
         <v>27</v>
@@ -15989,10 +16003,10 @@
         <v>380</v>
       </c>
       <c r="B622" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C622" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D622">
         <v>50</v>
@@ -16009,10 +16023,10 @@
         <v>381</v>
       </c>
       <c r="B623" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C623" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D623">
         <v>7</v>
@@ -16029,10 +16043,10 @@
         <v>382</v>
       </c>
       <c r="B624" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C624" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D624">
         <v>34</v>
@@ -16049,10 +16063,10 @@
         <v>37</v>
       </c>
       <c r="B625" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C625" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D625">
         <v>56</v>
@@ -16069,10 +16083,10 @@
         <v>38</v>
       </c>
       <c r="B626" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C626" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D626">
         <v>77</v>
@@ -16089,10 +16103,10 @@
         <v>383</v>
       </c>
       <c r="B627" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C627" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D627">
         <v>4</v>
@@ -16109,10 +16123,10 @@
         <v>384</v>
       </c>
       <c r="B628" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C628" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D628">
         <v>14</v>
@@ -16129,10 +16143,10 @@
         <v>157</v>
       </c>
       <c r="B629" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C629" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D629">
         <v>11</v>
@@ -16149,10 +16163,10 @@
         <v>158</v>
       </c>
       <c r="B630" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C630" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D630">
         <v>52</v>
@@ -16169,10 +16183,10 @@
         <v>6</v>
       </c>
       <c r="B631" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C631" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D631">
         <v>64</v>
@@ -16189,10 +16203,10 @@
         <v>385</v>
       </c>
       <c r="B632" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C632" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D632">
         <v>97</v>
@@ -16209,10 +16223,10 @@
         <v>386</v>
       </c>
       <c r="B633" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C633" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D633">
         <v>72</v>
@@ -16229,10 +16243,10 @@
         <v>387</v>
       </c>
       <c r="B634" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C634" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D634">
         <v>4</v>
@@ -16249,10 +16263,10 @@
         <v>388</v>
       </c>
       <c r="B635" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C635" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D635">
         <v>72</v>
@@ -16269,10 +16283,10 @@
         <v>389</v>
       </c>
       <c r="B636" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C636" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D636">
         <v>59</v>
@@ -16289,10 +16303,10 @@
         <v>390</v>
       </c>
       <c r="B637" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C637" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D637">
         <v>98</v>
@@ -16309,10 +16323,10 @@
         <v>391</v>
       </c>
       <c r="B638" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C638" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D638">
         <v>45</v>
@@ -16329,10 +16343,10 @@
         <v>152</v>
       </c>
       <c r="B639" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C639" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D639">
         <v>50</v>
@@ -16349,10 +16363,10 @@
         <v>153</v>
       </c>
       <c r="B640" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C640" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D640">
         <v>62</v>
@@ -16369,10 +16383,10 @@
         <v>138</v>
       </c>
       <c r="B641" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C641" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D641">
         <v>67</v>
@@ -16389,10 +16403,10 @@
         <v>139</v>
       </c>
       <c r="B642" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C642" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D642">
         <v>27</v>
@@ -16409,10 +16423,10 @@
         <v>37</v>
       </c>
       <c r="B643" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C643" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D643">
         <v>60</v>
@@ -16429,10 +16443,10 @@
         <v>38</v>
       </c>
       <c r="B644" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C644" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D644">
         <v>88</v>
@@ -16449,10 +16463,10 @@
         <v>6</v>
       </c>
       <c r="B645" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C645" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D645">
         <v>11</v>
@@ -16469,10 +16483,10 @@
         <v>272</v>
       </c>
       <c r="B646" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C646" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D646">
         <v>13</v>
@@ -16489,10 +16503,10 @@
         <v>13</v>
       </c>
       <c r="B647" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C647" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D647">
         <v>40</v>
@@ -16509,10 +16523,10 @@
         <v>14</v>
       </c>
       <c r="B648" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C648" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D648">
         <v>44</v>
@@ -16529,10 +16543,10 @@
         <v>71</v>
       </c>
       <c r="B649" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C649" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D649">
         <v>61</v>
@@ -16549,10 +16563,10 @@
         <v>70</v>
       </c>
       <c r="B650" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C650" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D650">
         <v>17</v>
@@ -16569,10 +16583,10 @@
         <v>152</v>
       </c>
       <c r="B651" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C651" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D651">
         <v>57</v>
@@ -16589,10 +16603,10 @@
         <v>153</v>
       </c>
       <c r="B652" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C652" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D652">
         <v>2</v>
@@ -16609,10 +16623,10 @@
         <v>64</v>
       </c>
       <c r="B653" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C653" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D653">
         <v>4</v>
@@ -16629,10 +16643,10 @@
         <v>44</v>
       </c>
       <c r="B654" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C654" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D654">
         <v>4</v>
@@ -16649,10 +16663,10 @@
         <v>154</v>
       </c>
       <c r="B655" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C655" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D655">
         <v>36</v>
@@ -16669,10 +16683,10 @@
         <v>155</v>
       </c>
       <c r="B656" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C656" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D656">
         <v>31</v>
@@ -16689,10 +16703,10 @@
         <v>37</v>
       </c>
       <c r="B657" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C657" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D657">
         <v>61</v>
@@ -16709,10 +16723,10 @@
         <v>38</v>
       </c>
       <c r="B658" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C658" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D658">
         <v>72</v>
@@ -16729,10 +16743,10 @@
         <v>392</v>
       </c>
       <c r="B659" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C659" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D659">
         <v>38</v>
@@ -16749,10 +16763,10 @@
         <v>393</v>
       </c>
       <c r="B660" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C660" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D660">
         <v>89</v>
@@ -16762,6 +16776,26 @@
       </c>
       <c r="F660" s="2">
         <v>45289.592400000001</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>394</v>
+      </c>
+      <c r="B661" t="s">
+        <v>394</v>
+      </c>
+      <c r="C661" t="s">
+        <v>394</v>
+      </c>
+      <c r="D661">
+        <v>20</v>
+      </c>
+      <c r="E661">
+        <v>55</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\putta\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44886E48-AE09-4E3B-BED5-46DA5358AA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEA038-35B5-46EA-8547-B1AB53BE27B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3565,7 +3565,7 @@
   <dimension ref="A1:F661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
